--- a/result/SPMS-ALS-SupplementaryMaterial.xlsx
+++ b/result/SPMS-ALS-SupplementaryMaterial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psxhll\Dropbox\Apps\Overleaf\PLMA-ALS (FastLocalSearchMemetic)\revision02\SPMS-ALS github\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B2D218-F0E7-41B2-B96A-BFB872FA4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775B7BA-2951-4C21-A337-556745F63D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Section 5.1 LSIR performance" sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="180">
   <si>
     <t>Average</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Acc</t>
-  </si>
-  <si>
-    <t>PSO-C</t>
-  </si>
-  <si>
-    <t>SFLSDE-C</t>
   </si>
   <si>
     <t>Total number of evaluations: 10 * n *d</t>
@@ -697,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,6 +896,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,12 +1237,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -1252,7 +1250,7 @@
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
       <c r="I2" s="59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
@@ -1262,25 +1260,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1323,7 +1321,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0.91617324561403501</v>
@@ -1364,7 +1362,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>0.928824476650563</v>
@@ -1405,7 +1403,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>0.73985838913602398</v>
@@ -1446,7 +1444,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>0.93101959673591095</v>
@@ -1487,7 +1485,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0.82972678291120405</v>
@@ -1528,7 +1526,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <v>0.82984849598829602</v>
@@ -1569,7 +1567,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>0.761951736116387</v>
@@ -1610,7 +1608,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3">
         <v>0.95833347109828904</v>
@@ -1651,7 +1649,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>0.71690233785822</v>
@@ -1692,7 +1690,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>0.63611690714021396</v>
@@ -1733,7 +1731,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>0.915136876006441</v>
@@ -1774,7 +1772,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>0.99180620797642005</v>
@@ -1815,7 +1813,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>0.86971018293882296</v>
@@ -1856,7 +1854,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3">
         <v>0.69116104014598501</v>
@@ -1897,7 +1895,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0.87977777777777699</v>
@@ -1938,7 +1936,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0.744084906800905</v>
@@ -1979,7 +1977,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
         <v>0.81009090909090897</v>
@@ -2020,7 +2018,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
         <v>0.61688552609151404</v>
@@ -2061,7 +2059,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>0.92716049382716004</v>
@@ -2102,7 +2100,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>0.91757965056526203</v>
@@ -2143,7 +2141,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>0.99335756041546996</v>
@@ -2184,7 +2182,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>0.98888888888888804</v>
@@ -2225,7 +2223,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>0.79177777777777703</v>
@@ -2266,7 +2264,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
         <v>0.92273363138962805</v>
@@ -2307,7 +2305,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <v>0.85362475915221503</v>
@@ -2348,7 +2346,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
         <v>0.93522071861857003</v>
@@ -2389,7 +2387,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3">
         <v>0.79660493827160495</v>
@@ -2430,7 +2428,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3">
         <v>0.98656588857432803</v>
@@ -2471,7 +2469,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3">
         <v>0.855321661588753</v>
@@ -2512,7 +2510,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="3">
         <v>0.82563600556070404</v>
@@ -2553,7 +2551,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3">
         <v>0.97757424052793196</v>
@@ -2594,7 +2592,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3">
         <v>0.89929633471645898</v>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3">
         <v>0.64313180827886696</v>
@@ -2676,7 +2674,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3">
         <v>0.90454533234037604</v>
@@ -2717,7 +2715,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3">
         <v>0.80300026557127102</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3">
         <v>0.671043771043771</v>
@@ -2799,7 +2797,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2840,7 +2838,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3">
         <v>0.99634390693214203</v>
@@ -2881,7 +2879,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3">
         <v>0.64465378232299397</v>
@@ -2922,7 +2920,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3">
         <v>0.98340860184580703</v>
@@ -3021,25 +3019,25 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -3083,7 +3081,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="3">
         <v>0.32172702542049297</v>
@@ -3124,7 +3122,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="3">
         <v>0.91916142557652003</v>
@@ -3165,7 +3163,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3">
         <v>0.95741276673710196</v>
@@ -3206,7 +3204,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3">
         <v>0.874255169996494</v>
@@ -3247,7 +3245,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3">
         <v>0.896390603566529</v>
@@ -3288,7 +3286,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3">
         <v>0.95658693151125496</v>
@@ -3329,7 +3327,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="3">
         <v>0.99864548238126505</v>
@@ -3370,7 +3368,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3">
         <v>0.89365883006888702</v>
@@ -3411,7 +3409,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>0.99025525525525504</v>
@@ -3455,7 +3453,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3">
         <v>0.91727518352293802</v>
@@ -3496,7 +3494,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3">
         <v>0.95372775372775298</v>
@@ -3537,7 +3535,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3">
         <v>0.93986413033636595</v>
@@ -3578,7 +3576,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3">
         <v>0.96722396377568698</v>
@@ -3619,7 +3617,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" s="3">
         <v>0.99472727272727202</v>
@@ -3660,7 +3658,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3">
         <v>0.94415123456790095</v>
@@ -3701,7 +3699,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3">
         <v>0.79065080384868303</v>
@@ -3742,7 +3740,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="3">
         <v>0.99319819819819799</v>
@@ -3860,24 +3858,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
@@ -3885,61 +3883,61 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>2</v>
@@ -3947,7 +3945,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <v>0.2233</v>
@@ -3988,7 +3986,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11">
         <v>7.6830999999999996</v>
@@ -4029,7 +4027,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11">
         <v>0.96830000000000005</v>
@@ -4070,7 +4068,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11">
         <v>1.0630999999999999</v>
@@ -4111,7 +4109,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>6.3498000000000001</v>
@@ -4152,7 +4150,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
         <v>0.58689999999999998</v>
@@ -4193,7 +4191,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11">
         <v>0.51180000000000003</v>
@@ -4234,7 +4232,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <v>23.216799999999999</v>
@@ -4275,7 +4273,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="11">
         <v>0.80600000000000005</v>
@@ -4316,7 +4314,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11">
         <v>28.441400000000002</v>
@@ -4357,7 +4355,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="11">
         <v>7.8489000000000004</v>
@@ -4398,7 +4396,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="11">
         <v>6.3082000000000003</v>
@@ -4439,7 +4437,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="11">
         <v>0.68459999999999999</v>
@@ -4480,7 +4478,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11">
         <v>13.133699999999999</v>
@@ -4521,7 +4519,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11">
         <v>38.004899999999999</v>
@@ -4562,7 +4560,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="11">
         <v>0.43530000000000002</v>
@@ -4603,7 +4601,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11">
         <v>0.33750000000000002</v>
@@ -4644,7 +4642,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11">
         <v>0.18809999999999999</v>
@@ -4685,7 +4683,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="11">
         <v>0.69930000000000003</v>
@@ -4726,7 +4724,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11">
         <v>0.48709999999999998</v>
@@ -4767,7 +4765,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="11">
         <v>2.5516000000000001</v>
@@ -4808,7 +4806,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="11">
         <v>0.245</v>
@@ -4849,7 +4847,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="11">
         <v>1.3535999999999999</v>
@@ -4890,7 +4888,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="11">
         <v>0.54120000000000001</v>
@@ -4931,7 +4929,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="11">
         <v>3.7942999999999998</v>
@@ -4972,7 +4970,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="11">
         <v>0.85799999999999998</v>
@@ -5013,7 +5011,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="11">
         <v>41.896599999999999</v>
@@ -5054,7 +5052,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="11">
         <v>0.29880000000000001</v>
@@ -5095,7 +5093,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="11">
         <v>3.9731000000000001</v>
@@ -5136,7 +5134,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="11">
         <v>1.4549000000000001</v>
@@ -5177,7 +5175,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="11">
         <v>3.5102000000000002</v>
@@ -5218,7 +5216,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="11">
         <v>4.5888999999999998</v>
@@ -5259,7 +5257,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="11">
         <v>0.22109999999999999</v>
@@ -5300,7 +5298,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="11">
         <v>9.7163000000000004</v>
@@ -5341,7 +5339,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="11">
         <v>20.3216</v>
@@ -5382,7 +5380,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="11">
         <v>19.0566</v>
@@ -5423,7 +5421,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="11">
         <v>0.26600000000000001</v>
@@ -5464,7 +5462,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="11">
         <v>3.8714</v>
@@ -5505,7 +5503,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="11">
         <v>22.268699999999999</v>
@@ -5546,7 +5544,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="11">
         <v>0.31259999999999999</v>
@@ -5640,60 +5638,60 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M49" s="11" t="s">
         <v>2</v>
@@ -5701,7 +5699,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="11">
         <v>368.35230000000001</v>
@@ -5742,7 +5740,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="11">
         <v>93.724100000000007</v>
@@ -5783,7 +5781,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="11">
         <v>2082.5086999999999</v>
@@ -5824,7 +5822,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="11">
         <v>39061.135799999996</v>
@@ -5865,7 +5863,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="11">
         <v>9363.6044000000002</v>
@@ -5906,7 +5904,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="11">
         <v>919.82950000000005</v>
@@ -5947,7 +5945,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="11">
         <v>16601.7199</v>
@@ -5988,7 +5986,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="11">
         <v>341.84620000000001</v>
@@ -6029,7 +6027,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="11">
         <v>8080.51</v>
@@ -6070,7 +6068,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="11">
         <v>16869.460500000001</v>
@@ -6111,7 +6109,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="11">
         <v>225.7373</v>
@@ -6152,7 +6150,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" s="11">
         <v>17171.582699999999</v>
@@ -6193,7 +6191,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" s="11">
         <v>6569.3653999999997</v>
@@ -6234,7 +6232,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" s="11">
         <v>13696.575999999999</v>
@@ -6275,7 +6273,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B64" s="11">
         <v>7977.3393999999998</v>
@@ -6316,7 +6314,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" s="11">
         <v>10.978400000000001</v>
@@ -6357,7 +6355,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="11">
         <v>8069.1756999999998</v>
@@ -6463,8 +6461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3C9156-5BC3-4C57-B37A-D5261792427F}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50:M50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,12 +6486,12 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -6507,7 +6505,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
       <c r="O2" s="61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
@@ -6523,37 +6521,37 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
       <c r="J3" s="62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="O3" s="62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
       <c r="S3" s="62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T3" s="62"/>
       <c r="U3" s="62"/>
       <c r="V3" s="62"/>
       <c r="W3" s="62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
@@ -6561,43 +6559,43 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -6676,7 +6674,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>0.91617324561403501</v>
@@ -6754,7 +6752,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>0.928824476650563</v>
@@ -6832,7 +6830,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3">
         <v>0.73985838913602398</v>
@@ -6910,7 +6908,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3">
         <v>0.93101959673591095</v>
@@ -6988,7 +6986,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>0.82972678291120405</v>
@@ -7066,7 +7064,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3">
         <v>0.82984849598829602</v>
@@ -7144,7 +7142,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>0.761951736116387</v>
@@ -7222,7 +7220,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>0.95833347109828904</v>
@@ -7300,7 +7298,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
         <v>0.71690233785822</v>
@@ -7378,7 +7376,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <v>0.63611690714021396</v>
@@ -7456,7 +7454,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3">
         <v>0.915136876006441</v>
@@ -7534,7 +7532,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>0.99180620797642005</v>
@@ -7612,7 +7610,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>0.86971018293882296</v>
@@ -7690,7 +7688,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3">
         <v>0.69116104014598501</v>
@@ -7768,7 +7766,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3">
         <v>0.87977777777777699</v>
@@ -7846,7 +7844,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3">
         <v>0.744084906800905</v>
@@ -7924,7 +7922,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3">
         <v>0.81009090909090897</v>
@@ -8002,7 +8000,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3">
         <v>0.61688552609151404</v>
@@ -8080,7 +8078,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3">
         <v>0.92716049382716004</v>
@@ -8158,7 +8156,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>0.91757965056526203</v>
@@ -8236,7 +8234,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>0.99335756041546996</v>
@@ -8314,7 +8312,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>0.98888888888888804</v>
@@ -8392,7 +8390,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3">
         <v>0.79177777777777703</v>
@@ -8470,7 +8468,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3">
         <v>0.92273363138962805</v>
@@ -8548,7 +8546,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3">
         <v>0.85362475915221503</v>
@@ -8626,7 +8624,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3">
         <v>0.93522071861857003</v>
@@ -8704,7 +8702,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3">
         <v>0.79660493827160495</v>
@@ -8782,7 +8780,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3">
         <v>0.98656588857432803</v>
@@ -8860,7 +8858,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3">
         <v>0.855321661588753</v>
@@ -8938,7 +8936,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3">
         <v>0.82563600556070404</v>
@@ -9016,7 +9014,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3">
         <v>0.97757424052793196</v>
@@ -9094,7 +9092,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="3">
         <v>0.89929633471645898</v>
@@ -9172,7 +9170,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3">
         <v>0.64313180827886696</v>
@@ -9250,7 +9248,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3">
         <v>0.90454533234037604</v>
@@ -9328,7 +9326,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3">
         <v>0.80300026557127102</v>
@@ -9406,7 +9404,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="3">
         <v>0.671043771043771</v>
@@ -9484,7 +9482,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -9562,7 +9560,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3">
         <v>0.99634390693214203</v>
@@ -9640,7 +9638,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3">
         <v>0.64465378232299397</v>
@@ -9718,7 +9716,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3">
         <v>0.98340860184580703</v>
@@ -9940,55 +9938,55 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
       <c r="O49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P49" s="33"/>
       <c r="Q49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R49" s="32"/>
       <c r="S49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T49" s="33"/>
       <c r="U49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V49" s="32"/>
       <c r="W49" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X49" s="33"/>
       <c r="Y49" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z49" s="32"/>
     </row>
@@ -10069,7 +10067,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" s="15">
         <v>0.32172702542049297</v>
@@ -10147,7 +10145,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" s="15">
         <v>0.91916142557652003</v>
@@ -10225,7 +10223,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="15">
         <v>0.95741276673710196</v>
@@ -10303,7 +10301,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B54" s="15">
         <v>0.874255169996494</v>
@@ -10381,7 +10379,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B55" s="15">
         <v>0.896390603566529</v>
@@ -10459,7 +10457,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="15">
         <v>0.95658693151125496</v>
@@ -10537,7 +10535,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="15">
         <v>0.99864548238126505</v>
@@ -10615,7 +10613,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" s="15">
         <v>0.89365883006888702</v>
@@ -10693,7 +10691,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="29">
         <v>0.99025525525525504</v>
@@ -10771,7 +10769,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="15">
         <v>0.91727518352293802</v>
@@ -10849,7 +10847,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61" s="15">
         <v>0.95372775372775298</v>
@@ -10927,7 +10925,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" s="15">
         <v>0.93986413033636595</v>
@@ -11005,7 +11003,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" s="15">
         <v>0.96722396377568698</v>
@@ -11083,7 +11081,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" s="15">
         <v>0.99472727272727202</v>
@@ -11161,7 +11159,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B65" s="15">
         <v>0.94415123456790095</v>
@@ -11239,7 +11237,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66" s="15">
         <v>0.79065080384868303</v>
@@ -11317,7 +11315,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B67" s="15">
         <v>0.99319819819819799</v>
@@ -11571,8 +11569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AE85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,22 +11592,23 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O2" s="23"/>
-      <c r="X2" s="24" t="s">
-        <v>136</v>
+      <c r="S2" s="16"/>
+      <c r="X2" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -11621,7 +11620,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
@@ -11634,54 +11633,54 @@
       <c r="V3" s="61"/>
       <c r="W3" s="12"/>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -11747,25 +11746,25 @@
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE5" s="12" t="s">
         <v>2</v>
@@ -11773,7 +11772,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33">
         <v>0.91822368421052603</v>
@@ -11864,7 +11863,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="33">
         <v>0.90660225442834097</v>
@@ -11894,7 +11893,7 @@
         <v>0.80710000000000004</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33">
@@ -11955,7 +11954,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="33">
         <v>0.69325369326258501</v>
@@ -11985,7 +11984,7 @@
         <v>0.75660000000000005</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33">
@@ -12046,7 +12045,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="33">
         <v>0.92711353820791198</v>
@@ -12076,7 +12075,7 @@
         <v>0.78949999999999998</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33">
@@ -12137,7 +12136,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="33">
         <v>0.80313096601756295</v>
@@ -12167,7 +12166,7 @@
         <v>0.73470000000000002</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33">
@@ -12228,7 +12227,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="33">
         <v>0.808872936178475</v>
@@ -12258,7 +12257,7 @@
         <v>0.65110000000000001</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="33">
@@ -12319,7 +12318,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="33">
         <v>0.79195871929663397</v>
@@ -12349,7 +12348,7 @@
         <v>0.61219999999999997</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" s="33">
@@ -12410,7 +12409,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="33">
         <v>0.93949334181965405</v>
@@ -12440,7 +12439,7 @@
         <v>0.8609</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33">
@@ -12501,7 +12500,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="33">
         <v>0.70041343460461103</v>
@@ -12531,7 +12530,7 @@
         <v>0.52769999999999995</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33">
@@ -12592,7 +12591,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="33">
         <v>0.60986487947864099</v>
@@ -12622,7 +12621,7 @@
         <v>0.42970000000000003</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="33">
@@ -12713,7 +12712,7 @@
         <v>0.80310000000000004</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="33">
@@ -12774,7 +12773,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="33">
         <v>0.99301832918854105</v>
@@ -12804,7 +12803,7 @@
         <v>0.95630000000000004</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33">
@@ -12865,7 +12864,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="33">
         <v>0.856481542193954</v>
@@ -12895,7 +12894,7 @@
         <v>0.78569999999999995</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33">
@@ -12956,7 +12955,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="33">
         <v>0.68834658498435797</v>
@@ -12986,7 +12985,7 @@
         <v>0.55520000000000003</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33">
@@ -13047,7 +13046,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="33">
         <v>0.80677777777777704</v>
@@ -13077,7 +13076,7 @@
         <v>0.68969999999999998</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="33">
@@ -13138,7 +13137,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="33">
         <v>0.79801839016824005</v>
@@ -13168,7 +13167,7 @@
         <v>0.7077</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33">
@@ -13229,7 +13228,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="33">
         <v>0.80972727272727196</v>
@@ -13259,7 +13258,7 @@
         <v>0.6714</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="33">
@@ -13320,7 +13319,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="33">
         <v>0.76000312878694098</v>
@@ -13350,7 +13349,7 @@
         <v>0.35439999999999999</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33">
@@ -13411,7 +13410,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="33">
         <v>0.906172839506172</v>
@@ -13441,7 +13440,7 @@
         <v>0.75880000000000003</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33">
@@ -13502,7 +13501,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="33">
         <v>0.90896711202466596</v>
@@ -13532,7 +13531,7 @@
         <v>0.80649999999999999</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33">
@@ -13593,7 +13592,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="33">
         <v>0.97164257007150601</v>
@@ -13623,7 +13622,7 @@
         <v>0.92390000000000005</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33">
@@ -13684,7 +13683,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="33">
         <v>0.99259259259259203</v>
@@ -13714,7 +13713,7 @@
         <v>0.95479999999999998</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33">
@@ -13775,7 +13774,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="33">
         <v>0.78466666666666596</v>
@@ -13805,7 +13804,7 @@
         <v>0.4022</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33">
@@ -13866,7 +13865,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="33">
         <v>0.90840761182893404</v>
@@ -13896,7 +13895,7 @@
         <v>0.74629999999999996</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33">
@@ -13957,7 +13956,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="33">
         <v>0.84113840719332</v>
@@ -13987,7 +13986,7 @@
         <v>0.73770000000000002</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="33">
@@ -14048,7 +14047,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="33">
         <v>0.91542031029941695</v>
@@ -14078,7 +14077,7 @@
         <v>0.77549999999999997</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="33">
@@ -14139,7 +14138,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="33">
         <v>0.70617283950617205</v>
@@ -14230,7 +14229,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="33">
         <v>0.99431120132471495</v>
@@ -14260,7 +14259,7 @@
         <v>0.96640000000000004</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="33">
@@ -14321,7 +14320,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="33">
         <v>0.84476604864879701</v>
@@ -14351,7 +14350,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L34" s="33"/>
       <c r="M34" s="33">
@@ -14412,7 +14411,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="33">
         <v>0.81000463392029598</v>
@@ -14442,7 +14441,7 @@
         <v>0.64549999999999996</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="33">
@@ -14503,7 +14502,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="33">
         <v>0.90810956877915505</v>
@@ -14533,7 +14532,7 @@
         <v>0.86319999999999997</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="33">
@@ -14594,7 +14593,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="33">
         <v>0.89554806362378903</v>
@@ -14624,7 +14623,7 @@
         <v>0.6946</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="33">
@@ -14685,7 +14684,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="33">
         <v>0.63135076252723299</v>
@@ -14715,7 +14714,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="33">
@@ -14776,7 +14775,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="33">
         <v>0.85665016816640804</v>
@@ -14806,7 +14805,7 @@
         <v>0.73129999999999995</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="33">
@@ -14867,7 +14866,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="33">
         <v>0.775537781824578</v>
@@ -14897,7 +14896,7 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L40" s="33"/>
       <c r="M40" s="33">
@@ -14958,7 +14957,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="33">
         <v>0.61750841750841701</v>
@@ -14988,7 +14987,7 @@
         <v>0.99070000000000003</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L41" s="33"/>
       <c r="M41" s="33">
@@ -15049,7 +15048,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="33">
         <v>1</v>
@@ -15079,7 +15078,7 @@
         <v>0.95569999999999999</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L42" s="33"/>
       <c r="M42" s="33">
@@ -15140,7 +15139,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="33">
         <v>0.98776036540742396</v>
@@ -15170,7 +15169,7 @@
         <v>0.95689999999999997</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L43" s="33"/>
       <c r="M43" s="33">
@@ -15231,7 +15230,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="33">
         <v>0.657606248177801</v>
@@ -15261,7 +15260,7 @@
         <v>0.50780000000000003</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="33">
@@ -15322,7 +15321,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="33">
         <v>0.97914778389406698</v>
@@ -15352,7 +15351,7 @@
         <v>0.92079999999999995</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L45" s="33"/>
       <c r="M45" s="33">
@@ -15615,7 +15614,7 @@
       <c r="U49" s="33"/>
       <c r="W49" s="35"/>
       <c r="X49" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y49" s="11"/>
       <c r="Z49" s="9"/>
@@ -15627,63 +15626,63 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N50" s="33"/>
       <c r="O50" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P50" s="33"/>
       <c r="Q50" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R50" s="33"/>
       <c r="S50" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T50" s="33"/>
       <c r="U50" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W50" s="35"/>
       <c r="X50" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="AA50" s="11"/>
-      <c r="AB50" s="11" t="s">
-        <v>4</v>
+      <c r="AB50" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="11" t="s">
-        <v>119</v>
+      <c r="AD50" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="AE50" s="11"/>
     </row>
@@ -15750,25 +15749,25 @@
       </c>
       <c r="W51" s="12"/>
       <c r="X51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AB51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AD51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE51" s="12" t="s">
         <v>2</v>
@@ -15776,7 +15775,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="33">
         <v>0.36157664372617299</v>
@@ -15867,7 +15866,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" s="33">
         <v>0.91748427672955901</v>
@@ -15958,7 +15957,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="33">
         <v>0.93290043619652796</v>
@@ -16049,7 +16048,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="41">
         <v>0.87885372122911498</v>
@@ -16140,7 +16139,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="33">
         <v>0.78598251028806498</v>
@@ -16231,7 +16230,7 @@
     </row>
     <row r="57" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="33">
         <v>0.96781593108652497</v>
@@ -16322,7 +16321,7 @@
     </row>
     <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="33">
         <v>0.99581514005891003</v>
@@ -16413,7 +16412,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="33">
         <v>0.89435877331650304</v>
@@ -16504,7 +16503,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="33">
         <v>0.89788288288288198</v>
@@ -16595,7 +16594,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="33">
         <v>0.91974405555310601</v>
@@ -16686,7 +16685,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" s="33">
         <v>0.95901875901875899</v>
@@ -16777,7 +16776,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" s="33">
         <v>0.91508868615786498</v>
@@ -16868,7 +16867,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" s="33">
         <v>0.92034134447927496</v>
@@ -16959,7 +16958,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" s="33">
         <v>0.98907070707070699</v>
@@ -17050,7 +17049,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="33">
         <v>0.94771604938271603</v>
@@ -17141,7 +17140,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67" s="33">
         <v>0.79065080384868303</v>
@@ -17232,7 +17231,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68" s="33">
         <v>0.98671171171171101</v>
@@ -17497,7 +17496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9639A0-DCED-4B85-BA9C-7B53FD69F8FA}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -17513,7 +17512,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -17522,13 +17521,13 @@
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="I1" s="65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="L1" s="45"/>
       <c r="M1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -17541,7 +17540,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -17550,13 +17549,13 @@
       <c r="G2" s="63"/>
       <c r="H2" s="13"/>
       <c r="I2" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="64"/>
       <c r="K2" s="64"/>
       <c r="L2" s="14"/>
       <c r="M2" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="63"/>
       <c r="O2" s="63"/>
@@ -17565,34 +17564,34 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -17615,27 +17614,27 @@
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0.86818181818181794</v>
@@ -17684,7 +17683,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>0.81884057971014401</v>
@@ -17733,7 +17732,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>0.13162895710950601</v>
@@ -17782,7 +17781,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>0.86722486632587104</v>
@@ -17831,7 +17830,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0.71076170510132697</v>
@@ -17880,7 +17879,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <v>0.6897126436781601</v>
@@ -17929,7 +17928,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>0.65873136351314698</v>
@@ -17978,7 +17977,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3">
         <v>0.70311533808307503</v>
@@ -18027,7 +18026,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>0.53462365591397798</v>
@@ -18076,7 +18075,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>0.45153980511123298</v>
@@ -18125,7 +18124,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>0.48260869565217296</v>
@@ -18174,7 +18173,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>0.95645645645645605</v>
@@ -18223,7 +18222,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>0.80971479500891208</v>
@@ -18272,7 +18271,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3">
         <v>0.65853464997354905</v>
@@ -18321,7 +18320,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0.68599999999999994</v>
@@ -18370,7 +18369,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0.70553108727021696</v>
@@ -18419,7 +18418,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
         <v>0.66365591397849399</v>
@@ -18468,7 +18467,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
         <v>0.76835164835164804</v>
@@ -18517,7 +18516,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>0.75925925925925897</v>
@@ -18566,7 +18565,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>0.80708333333333304</v>
@@ -18615,7 +18614,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>0.91680761099365693</v>
@@ -18664,7 +18663,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>0.95333333333333303</v>
@@ -18713,7 +18712,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>0.73</v>
@@ -18762,7 +18761,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
         <v>0.29420168067226798</v>
@@ -18811,7 +18810,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <v>0.76898625429553202</v>
@@ -18860,7 +18859,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
         <v>0.69968843885612497</v>
@@ -18909,7 +18908,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3">
         <v>0.82222222222222197</v>
@@ -18958,7 +18957,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3">
         <v>0.96731601731601702</v>
@@ -19007,7 +19006,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3">
         <v>0.71362716231137202</v>
@@ -19056,7 +19055,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="3">
         <v>0.68825161887141506</v>
@@ -19105,7 +19104,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3">
         <v>0.87547619047618996</v>
@@ -19154,7 +19153,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3">
         <v>0.74558404558404501</v>
@@ -19203,7 +19202,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3">
         <v>0.68416666666666603</v>
@@ -19252,7 +19251,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3">
         <v>0.725361842105263</v>
@@ -19301,7 +19300,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3">
         <v>0.68910364145658209</v>
@@ -19350,7 +19349,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3">
         <v>0.95757575757575697</v>
@@ -19399,7 +19398,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3">
         <v>0.93823529411764695</v>
@@ -19449,7 +19448,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3">
         <v>0.96569358178053799</v>
@@ -19499,7 +19498,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3">
         <v>0.53636404861236997</v>
@@ -19549,7 +19548,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3">
         <v>0.87388888888888805</v>
@@ -19694,39 +19693,39 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P48" s="3"/>
       <c r="R48" s="3"/>
@@ -19753,23 +19752,23 @@
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P49" s="3"/>
       <c r="R49" s="3"/>
@@ -19777,7 +19776,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="3">
         <v>0.16890697967941398</v>
@@ -19826,7 +19825,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="3">
         <v>0.877169811320754</v>
@@ -19874,7 +19873,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3">
         <v>0.84636265673981204</v>
@@ -19922,7 +19921,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3">
         <v>0.82902208201892702</v>
@@ -19970,7 +19969,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3">
         <v>0.43279320987654302</v>
@@ -20018,7 +20017,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3">
         <v>0.957604184736919</v>
@@ -20066,7 +20065,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="3">
         <v>0.98853750061491596</v>
@@ -20114,7 +20113,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3">
         <v>0.89803142329020302</v>
@@ -20162,7 +20161,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>0.947972972972973</v>
@@ -20210,7 +20209,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3">
         <v>0.91017981902557299</v>
@@ -20258,7 +20257,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3">
         <v>0.96233766233766205</v>
@@ -20306,7 +20305,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3">
         <v>0.90863644974898095</v>
@@ -20354,7 +20353,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3">
         <v>0.26865203761755402</v>
@@ -20402,7 +20401,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" s="3">
         <v>0.98145454545454502</v>
@@ -20450,7 +20449,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3">
         <v>0.92958333333333298</v>
@@ -20498,7 +20497,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" s="3">
         <v>0.69060057589469293</v>
@@ -20546,7 +20545,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="3">
         <v>0.95499999999999996</v>
@@ -20684,8 +20683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AD211"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20714,19 +20713,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O2" s="23"/>
       <c r="T2" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="34"/>
@@ -20734,7 +20733,7 @@
     <row r="3" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -20745,7 +20744,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="22"/>
       <c r="K3" s="61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
@@ -20760,47 +20759,55 @@
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+    <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="K4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="12" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>122</v>
-      </c>
+      <c r="U4" s="70"/>
+      <c r="V4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="22"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -20853,19 +20860,19 @@
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="12" t="s">
         <v>2</v>
@@ -20873,7 +20880,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="48">
         <v>0.92139254385964897</v>
@@ -20946,7 +20953,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="48">
         <v>0.90064412238325198</v>
@@ -21019,7 +21026,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="48">
         <v>0.79466850974140801</v>
@@ -21092,7 +21099,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="48">
         <v>0.92106655498682999</v>
@@ -21165,7 +21172,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="48">
         <v>0.82271732213312898</v>
@@ -21238,7 +21245,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="48">
         <v>0.80459420621813904</v>
@@ -21311,7 +21318,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="48">
         <v>0.80740349238291598</v>
@@ -21384,7 +21391,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="48">
         <v>0.95981087626778105</v>
@@ -21457,7 +21464,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="48">
         <v>0.67180429864253399</v>
@@ -21530,7 +21537,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="48">
         <v>0.61062010871111805</v>
@@ -21676,7 +21683,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="48">
         <v>0.99757391544625595</v>
@@ -21749,7 +21756,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="48">
         <v>0.88987825934911302</v>
@@ -21822,7 +21829,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="48">
         <v>0.68490712982273105</v>
@@ -21895,7 +21902,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="48">
         <v>0.82911111111111102</v>
@@ -21968,7 +21975,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="48">
         <v>0.81834011065380696</v>
@@ -22041,7 +22048,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="48">
         <v>0.798098814229249</v>
@@ -22114,7 +22121,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="48">
         <v>0.83170371788615405</v>
@@ -22187,7 +22194,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="48">
         <v>0.904938271604938</v>
@@ -22260,7 +22267,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="48">
         <v>0.93765159301130496</v>
@@ -22333,7 +22340,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="48">
         <v>0.97726329662299705</v>
@@ -22406,7 +22413,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="48">
         <v>0.99185185185185198</v>
@@ -22479,7 +22486,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="48">
         <v>0.78844444444444395</v>
@@ -22552,7 +22559,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="48">
         <v>0.921213038863536</v>
@@ -22625,7 +22632,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="48">
         <v>0.843220134874759</v>
@@ -22698,7 +22705,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="48">
         <v>0.97172165876696204</v>
@@ -22771,7 +22778,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="48">
         <v>0.91450617283950597</v>
@@ -22844,7 +22851,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="48">
         <v>0.99896907216494801</v>
@@ -22917,7 +22924,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="48">
         <v>0.83955515249075896</v>
@@ -22990,7 +22997,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="48">
         <v>0.80423250695088</v>
@@ -23063,7 +23070,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="48">
         <v>0.97488622141312997</v>
@@ -23136,7 +23143,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="48">
         <v>0.90054979253112</v>
@@ -23210,7 +23217,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="48">
         <v>0.68508169934640495</v>
@@ -23283,7 +23290,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="48">
         <v>0.88146419036813695</v>
@@ -23356,7 +23363,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="48">
         <v>0.81993784942453796</v>
@@ -23429,7 +23436,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="48">
         <v>0.97070707070706996</v>
@@ -23502,7 +23509,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="48">
         <v>0.99937500000000001</v>
@@ -23575,7 +23582,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="48">
         <v>0.98378655966891204</v>
@@ -23648,7 +23655,7 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="48">
         <v>0.68763147861580198</v>
@@ -23721,7 +23728,7 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="48">
         <v>0.99003919580285804</v>
@@ -23960,7 +23967,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="33"/>
       <c r="T49" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U49" s="56"/>
       <c r="V49" s="11"/>
@@ -23970,52 +23977,52 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="50"/>
       <c r="D50" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="48"/>
       <c r="K50" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L50" s="50"/>
       <c r="M50" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N50" s="29"/>
       <c r="O50" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P50" s="29"/>
       <c r="Q50" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R50" s="29"/>
       <c r="S50" s="33"/>
       <c r="T50" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U50" s="57"/>
       <c r="V50" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W50" s="11"/>
       <c r="X50" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y50" s="11"/>
     </row>
@@ -24071,19 +24078,19 @@
       </c>
       <c r="S51" s="12"/>
       <c r="T51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="X51" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>2</v>
@@ -24091,7 +24098,7 @@
     </row>
     <row r="52" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="48">
         <v>0.36493092907438901</v>
@@ -24164,7 +24171,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" s="48">
         <v>0.92071278825995795</v>
@@ -24237,7 +24244,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="48">
         <v>0.95713384122214296</v>
@@ -24310,7 +24317,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="48">
         <v>0.87785372122911498</v>
@@ -24383,7 +24390,7 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="48">
         <v>0.90259773662551401</v>
@@ -24456,7 +24463,7 @@
     </row>
     <row r="57" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="48">
         <v>0.96972472547184196</v>
@@ -24529,7 +24536,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="48">
         <v>0.99706853932765305</v>
@@ -24602,7 +24609,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="48">
         <v>0.90953202873875705</v>
@@ -24675,7 +24682,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="48">
         <v>0.98142642642642597</v>
@@ -24748,7 +24755,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="48">
         <v>0.94117245026526597</v>
@@ -24821,7 +24828,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" s="48">
         <v>0.98128908128908099</v>
@@ -24894,7 +24901,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" s="48">
         <v>0.94873476728010497</v>
@@ -24967,7 +24974,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" s="48">
         <v>0.93657262277951903</v>
@@ -25040,7 +25047,7 @@
     </row>
     <row r="65" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" s="48">
         <v>0.99274747474747405</v>
@@ -25113,7 +25120,7 @@
     </row>
     <row r="66" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="48">
         <v>0.95402777777777703</v>
@@ -25186,7 +25193,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67" s="48">
         <v>0.79065080384868303</v>
@@ -25259,7 +25266,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68" s="48">
         <v>0.99046546546546499</v>
@@ -26032,7 +26039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A81228-D721-4E5F-92F1-2DB3DBA21548}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -26045,7 +26052,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
@@ -26057,7 +26064,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
       <c r="M1" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N1" s="68"/>
       <c r="O1" s="68"/>
@@ -26070,7 +26077,7 @@
     </row>
     <row r="2" spans="1:21" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -26082,7 +26089,7 @@
       <c r="J2" s="69"/>
       <c r="K2" s="69"/>
       <c r="M2" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N2" s="68"/>
       <c r="O2" s="68"/>
@@ -26095,61 +26102,61 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="M3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="S3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="U3" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -26211,10 +26218,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="58">
         <v>98.09</v>
@@ -26275,7 +26282,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="58">
         <v>97.53</v>
@@ -26336,7 +26343,7 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="58">
         <v>87.8</v>
@@ -26397,7 +26404,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="58">
         <v>77.83</v>
@@ -26458,7 +26465,7 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="58">
         <v>87.5</v>
@@ -26519,7 +26526,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="58">
         <v>82.69</v>
@@ -26580,7 +26587,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="B11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="58">
         <v>95.95</v>
@@ -26641,7 +26648,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="58">
         <v>85.81</v>
@@ -26702,7 +26709,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="58">
         <v>82.71</v>
@@ -26763,7 +26770,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="58">
         <v>75.650000000000006</v>
@@ -26824,7 +26831,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="58">
         <v>98.95</v>
@@ -26885,7 +26892,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="B16" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="58">
         <v>98.86</v>
@@ -26946,7 +26953,7 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="B17" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="58">
         <v>62.33</v>
@@ -27007,7 +27014,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="B18" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="58">
         <v>99</v>
@@ -27088,10 +27095,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="58">
         <v>65.61</v>
@@ -27152,7 +27159,7 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="58">
         <v>87.22</v>
@@ -27213,7 +27220,7 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="58">
         <v>99.64</v>
@@ -27274,7 +27281,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="58">
         <v>97.33</v>
@@ -27335,7 +27342,7 @@
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="58">
         <v>94.52</v>
@@ -27396,7 +27403,7 @@
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="58">
         <v>98.95</v>
@@ -27457,7 +27464,7 @@
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="B26" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="58">
         <v>78.64</v>
@@ -27518,7 +27525,7 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" s="58">
         <v>97.58</v>
